--- a/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,749 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,281 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4510</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001898</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达大健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010683</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融景颐6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0685</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010684</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融景颐6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.75</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1476,64 +1260,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.36</v>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.36</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -515,6 +532,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1254,7 +1933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301122-采纳股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>3.36</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -532,6 +549,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1193,7 +1456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1933,7 +2196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
